--- a/Excel文件/xiakeqian/侠客参数随机表.xlsx
+++ b/Excel文件/xiakeqian/侠客参数随机表.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>#ID</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>敖广</t>
+  </si>
+  <si>
+    <t>王蓉</t>
+  </si>
+  <si>
+    <t>虚真</t>
+  </si>
+  <si>
+    <t>任清璇</t>
+  </si>
+  <si>
+    <t>纪玟</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,12 +265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -570,76 +591,76 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
-        <v>100419</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
+      <c r="A2" s="6">
+        <v>100021</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
-        <v>200000</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
+      <c r="A3" s="6">
+        <v>100043</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>200022</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
+      <c r="A4" s="6">
+        <v>100054</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
-        <v>200039</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
+      <c r="A5" s="6">
+        <v>100056</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2">
-        <v>200044</v>
+        <v>100419</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -651,12 +672,12 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
-        <v>210048</v>
+        <v>200000</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -668,15 +689,15 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <v>800035</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
+        <v>200022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -685,97 +706,97 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
+        <v>200039</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>200044</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>210048</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>800035</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
         <v>800092</v>
       </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>878150</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>878155</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>878162</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>878178</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>878188</v>
+        <v>878150</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -787,15 +808,15 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>878208</v>
+        <v>878155</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -804,12 +825,12 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>878217</v>
+        <v>878162</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -821,15 +842,15 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>878224</v>
+        <v>878178</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -838,12 +859,12 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>878226</v>
+        <v>878188</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -855,12 +876,12 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>878228</v>
+        <v>878208</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -872,12 +893,12 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>878241</v>
+        <v>878217</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -889,15 +910,15 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>878242</v>
+        <v>878224</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -906,12 +927,12 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>878262</v>
+        <v>878226</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -923,15 +944,15 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>878263</v>
+        <v>878228</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -940,15 +961,15 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>878265</v>
+        <v>878241</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -957,12 +978,12 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>878271</v>
+        <v>878242</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -974,12 +995,12 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>878273</v>
+        <v>878262</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -991,15 +1012,15 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>878274</v>
+        <v>878263</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1008,15 +1029,15 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>878275</v>
+        <v>878265</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1025,23 +1046,91 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
+        <v>878271</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>878273</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>878274</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>878275</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
         <v>878281</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel文件/xiakeqian/侠客参数随机表.xlsx
+++ b/Excel文件/xiakeqian/侠客参数随机表.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>#ID</t>
   </si>
@@ -162,6 +162,10 @@
     <t>敖广</t>
   </si>
   <si>
+    <t>攻击属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王蓉</t>
   </si>
   <si>
@@ -172,13 +176,187 @@
   </si>
   <si>
     <t>纪玟</t>
+  </si>
+  <si>
+    <t>沈澜</t>
+  </si>
+  <si>
+    <t>齐丽</t>
+  </si>
+  <si>
+    <t>关伟</t>
+  </si>
+  <si>
+    <t>唐中慧</t>
+  </si>
+  <si>
+    <t>杨云</t>
+  </si>
+  <si>
+    <t>徐子易</t>
+  </si>
+  <si>
+    <t>徐子骐</t>
+  </si>
+  <si>
+    <t>陆少临</t>
+  </si>
+  <si>
+    <t>倭寇</t>
+  </si>
+  <si>
+    <t>黑冢忍者</t>
+  </si>
+  <si>
+    <t>倭寇组长</t>
+  </si>
+  <si>
+    <t>黑冢中忍</t>
+  </si>
+  <si>
+    <t>黑冢上忍</t>
+  </si>
+  <si>
+    <t>衙门官兵</t>
+  </si>
+  <si>
+    <t>大刀队</t>
+  </si>
+  <si>
+    <t>大刀队长</t>
+  </si>
+  <si>
+    <t>大刀护卫</t>
+  </si>
+  <si>
+    <t>锦衣卫</t>
+  </si>
+  <si>
+    <t>毓明</t>
+  </si>
+  <si>
+    <t>游进</t>
+  </si>
+  <si>
+    <t>枪兵护卫</t>
+  </si>
+  <si>
+    <t>长枪兵</t>
+  </si>
+  <si>
+    <t>沐王府精兵</t>
+  </si>
+  <si>
+    <t>神火兵</t>
+  </si>
+  <si>
+    <t>常漆</t>
+  </si>
+  <si>
+    <t>常皓</t>
+  </si>
+  <si>
+    <t>文靖之</t>
+  </si>
+  <si>
+    <t>封青霄</t>
+  </si>
+  <si>
+    <t>史刚</t>
+  </si>
+  <si>
+    <t>老练倭寇</t>
+  </si>
+  <si>
+    <t>东海大寇</t>
+  </si>
+  <si>
+    <t>偷枪忍者</t>
+  </si>
+  <si>
+    <t>烟雾忍者</t>
+  </si>
+  <si>
+    <t>东厂杀手</t>
+  </si>
+  <si>
+    <t>陈公公</t>
+  </si>
+  <si>
+    <t>佛母</t>
+  </si>
+  <si>
+    <t>黑冢罗王</t>
+  </si>
+  <si>
+    <t>赛王府护卫</t>
+  </si>
+  <si>
+    <t>赛王府亲兵</t>
+  </si>
+  <si>
+    <t>江洋大盗</t>
+  </si>
+  <si>
+    <t>劫匪</t>
+  </si>
+  <si>
+    <t>铁叉部女子</t>
+  </si>
+  <si>
+    <t>阿傍</t>
+  </si>
+  <si>
+    <t>完颜柯尔克</t>
+  </si>
+  <si>
+    <t>赛王爷</t>
+  </si>
+  <si>
+    <t>贺陀</t>
+  </si>
+  <si>
+    <t>霹雳堂叛徒</t>
+  </si>
+  <si>
+    <t>天龙教众</t>
+  </si>
+  <si>
+    <t>掷弹教徒</t>
+  </si>
+  <si>
+    <t>天龙菁英</t>
+  </si>
+  <si>
+    <t>天龙突击兵</t>
+  </si>
+  <si>
+    <t>香儿</t>
+  </si>
+  <si>
+    <t>纳兰衍</t>
+  </si>
+  <si>
+    <t>持国天</t>
+  </si>
+  <si>
+    <t>任天翔</t>
+  </si>
+  <si>
+    <t>玄冥子</t>
+  </si>
+  <si>
+    <t>公孙坚</t>
+  </si>
+  <si>
+    <t>摩呼罗迦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +392,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,25 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,15 +456,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -568,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -589,549 +785,3542 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="6">
+      <c r="A2" s="12">
+        <v>100033</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12">
+        <v>100060</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12">
+        <v>100078</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12">
+        <v>100082</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12">
+        <v>100091</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
+        <v>100134</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
+        <v>100135</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
+        <v>100297</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6">
         <v>100021</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6">
         <v>100043</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6">
         <v>100054</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6">
         <v>100056</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8">
         <v>100419</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
+    <row r="15" spans="1:10">
+      <c r="A15" s="9">
         <v>200000</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
+    <row r="16" spans="1:10">
+      <c r="A16" s="8">
         <v>200022</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
+    <row r="17" spans="1:10">
+      <c r="A17" s="8">
         <v>200039</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
+    <row r="18" spans="1:10">
+      <c r="A18" s="8">
         <v>200044</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
+    <row r="19" spans="1:10">
+      <c r="A19" s="8">
         <v>210048</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
+    <row r="20" spans="1:10">
+      <c r="A20" s="8">
         <v>800035</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
+    <row r="21" spans="1:10">
+      <c r="A21" s="8">
         <v>800092</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>878150</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>878155</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>878162</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>878178</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>878188</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>878208</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>878217</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>878224</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22">
-        <v>878226</v>
+      <c r="A22" s="8">
+        <v>878150</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23">
-        <v>878228</v>
+      <c r="A23" s="8">
+        <v>878155</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24">
-        <v>878241</v>
+      <c r="A24" s="8">
+        <v>878162</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25">
-        <v>878242</v>
+      <c r="A25" s="8">
+        <v>878178</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26">
-        <v>878262</v>
+      <c r="A26" s="8">
+        <v>878188</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27">
-        <v>878263</v>
+      <c r="A27" s="8">
+        <v>878208</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28">
-        <v>878265</v>
+      <c r="A28" s="8">
+        <v>878217</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29">
-        <v>878271</v>
+      <c r="A29" s="8">
+        <v>878224</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="8">
+        <v>878226</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="8">
+        <v>878228</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="8">
+        <v>878241</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="8">
+        <v>878242</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9">
+        <v>878262</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="10">
+        <v>878263</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9">
+        <v>878265</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="8">
+        <v>878271</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
+    <row r="38" spans="1:10">
+      <c r="A38" s="8">
         <v>878273</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+    <row r="39" spans="1:10">
+      <c r="A39" s="8">
         <v>878274</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+    <row r="40" spans="1:10">
+      <c r="A40" s="8">
         <v>878275</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
+    <row r="41" spans="1:10">
+      <c r="A41" s="8">
         <v>878281</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="11">
+        <v>878008</v>
+      </c>
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>45</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="11">
+        <v>878013</v>
+      </c>
+      <c r="B43">
+        <v>-1</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>45</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="11">
+        <v>878009</v>
+      </c>
+      <c r="B44">
+        <v>-1</v>
+      </c>
+      <c r="C44">
+        <v>-1</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="11">
+        <v>878019</v>
+      </c>
+      <c r="B45">
+        <v>-1</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="11">
+        <v>878094</v>
+      </c>
+      <c r="B46">
+        <v>-1</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="11">
+        <v>878015</v>
+      </c>
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="11">
+        <v>878218</v>
+      </c>
+      <c r="B48">
+        <v>-1</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>45</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="11">
+        <v>878014</v>
+      </c>
+      <c r="B49">
+        <v>-1</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>80</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="11">
+        <v>878052</v>
+      </c>
+      <c r="B50">
+        <v>-1</v>
+      </c>
+      <c r="C50">
+        <v>-1</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>45</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="11">
+        <v>878021</v>
+      </c>
+      <c r="B51">
+        <v>-1</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>45</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="11">
+        <v>878023</v>
+      </c>
+      <c r="B52">
+        <v>-1</v>
+      </c>
+      <c r="C52">
+        <v>-1</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>105</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="11">
+        <v>878024</v>
+      </c>
+      <c r="B53">
+        <v>-1</v>
+      </c>
+      <c r="C53">
+        <v>-1</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>105</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="11">
+        <v>878033</v>
+      </c>
+      <c r="B54">
+        <v>-1</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>60</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="11">
+        <v>878219</v>
+      </c>
+      <c r="B55">
+        <v>-1</v>
+      </c>
+      <c r="C55">
+        <v>-1</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="11">
+        <v>878049</v>
+      </c>
+      <c r="B56">
+        <v>-1</v>
+      </c>
+      <c r="C56">
+        <v>-1</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>60</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="11">
+        <v>878093</v>
+      </c>
+      <c r="B57">
+        <v>-1</v>
+      </c>
+      <c r="C57">
+        <v>-1</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>60</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="11">
+        <v>879012</v>
+      </c>
+      <c r="B58">
+        <v>-1</v>
+      </c>
+      <c r="C58">
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="11">
+        <v>879014</v>
+      </c>
+      <c r="B59">
+        <v>-1</v>
+      </c>
+      <c r="C59">
+        <v>-1</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>120</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="11">
+        <v>879010</v>
+      </c>
+      <c r="B60">
+        <v>-1</v>
+      </c>
+      <c r="C60">
+        <v>-1</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="11">
+        <v>878190</v>
+      </c>
+      <c r="B61">
+        <v>-1</v>
+      </c>
+      <c r="C61">
+        <v>-1</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="11">
+        <v>878182</v>
+      </c>
+      <c r="B62">
+        <v>-1</v>
+      </c>
+      <c r="C62">
+        <v>-1</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="11">
+        <v>878303</v>
+      </c>
+      <c r="B63">
+        <v>-1</v>
+      </c>
+      <c r="C63">
+        <v>-1</v>
+      </c>
+      <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <v>80</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="11">
+        <v>878304</v>
+      </c>
+      <c r="B64">
+        <v>-1</v>
+      </c>
+      <c r="C64">
+        <v>-1</v>
+      </c>
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="11">
+        <v>878016</v>
+      </c>
+      <c r="B65">
+        <v>-1</v>
+      </c>
+      <c r="C65">
+        <v>-1</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>80</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="11">
+        <v>878017</v>
+      </c>
+      <c r="B66">
+        <v>-1</v>
+      </c>
+      <c r="C66">
+        <v>-1</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+      <c r="E66">
+        <v>80</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="11">
+        <v>878063</v>
+      </c>
+      <c r="B67">
+        <v>-1</v>
+      </c>
+      <c r="C67">
+        <v>-1</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+      <c r="E67">
+        <v>80</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="11">
+        <v>878035</v>
+      </c>
+      <c r="B68">
+        <v>-1</v>
+      </c>
+      <c r="C68">
+        <v>-1</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>135</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="11">
+        <v>878045</v>
+      </c>
+      <c r="B69">
+        <v>-1</v>
+      </c>
+      <c r="C69">
+        <v>-1</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>135</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="11">
+        <v>878037</v>
+      </c>
+      <c r="B70">
+        <v>-1</v>
+      </c>
+      <c r="C70">
+        <v>-1</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>135</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="11">
+        <v>878138</v>
+      </c>
+      <c r="B71">
+        <v>-1</v>
+      </c>
+      <c r="C71">
+        <v>-1</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="E71">
+        <v>90</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="11">
+        <v>878133</v>
+      </c>
+      <c r="B72">
+        <v>-1</v>
+      </c>
+      <c r="C72">
+        <v>-1</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>90</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="11">
+        <v>878234</v>
+      </c>
+      <c r="B73">
+        <v>-1</v>
+      </c>
+      <c r="C73">
+        <v>-1</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>90</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="11">
+        <v>878285</v>
+      </c>
+      <c r="B74">
+        <v>-1</v>
+      </c>
+      <c r="C74">
+        <v>-1</v>
+      </c>
+      <c r="D74">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>90</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="11">
+        <v>878081</v>
+      </c>
+      <c r="B75">
+        <v>-1</v>
+      </c>
+      <c r="C75">
+        <v>-1</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>90</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="11">
+        <v>878323</v>
+      </c>
+      <c r="B76">
+        <v>-1</v>
+      </c>
+      <c r="C76">
+        <v>-1</v>
+      </c>
+      <c r="D76">
+        <v>-1</v>
+      </c>
+      <c r="E76">
+        <v>150</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="11">
+        <v>878132</v>
+      </c>
+      <c r="B77">
+        <v>-1</v>
+      </c>
+      <c r="C77">
+        <v>-1</v>
+      </c>
+      <c r="D77">
+        <v>-1</v>
+      </c>
+      <c r="E77">
+        <v>150</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="11">
+        <v>878136</v>
+      </c>
+      <c r="B78">
+        <v>-1</v>
+      </c>
+      <c r="C78">
+        <v>-1</v>
+      </c>
+      <c r="D78">
+        <v>-1</v>
+      </c>
+      <c r="E78">
+        <v>150</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="11">
+        <v>878135</v>
+      </c>
+      <c r="B79">
+        <v>-1</v>
+      </c>
+      <c r="C79">
+        <v>-1</v>
+      </c>
+      <c r="D79">
+        <v>-1</v>
+      </c>
+      <c r="E79">
+        <v>150</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="11">
+        <v>878268</v>
+      </c>
+      <c r="B80">
+        <v>-1</v>
+      </c>
+      <c r="C80">
+        <v>-1</v>
+      </c>
+      <c r="D80">
+        <v>-1</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="11">
+        <v>878082</v>
+      </c>
+      <c r="B81">
+        <v>-1</v>
+      </c>
+      <c r="C81">
+        <v>-1</v>
+      </c>
+      <c r="D81">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>100</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="11">
+        <v>878276</v>
+      </c>
+      <c r="B82">
+        <v>-1</v>
+      </c>
+      <c r="C82">
+        <v>-1</v>
+      </c>
+      <c r="D82">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>120</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="11">
+        <v>878083</v>
+      </c>
+      <c r="B83">
+        <v>-1</v>
+      </c>
+      <c r="C83">
+        <v>-1</v>
+      </c>
+      <c r="D83">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>135</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="11">
+        <v>878376</v>
+      </c>
+      <c r="B84">
+        <v>-1</v>
+      </c>
+      <c r="C84">
+        <v>-1</v>
+      </c>
+      <c r="D84">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>135</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="11">
+        <v>878258</v>
+      </c>
+      <c r="B85">
+        <v>-1</v>
+      </c>
+      <c r="C85">
+        <v>-1</v>
+      </c>
+      <c r="D85">
+        <v>-1</v>
+      </c>
+      <c r="E85">
+        <v>150</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="11">
+        <v>878257</v>
+      </c>
+      <c r="B86">
+        <v>-1</v>
+      </c>
+      <c r="C86">
+        <v>-1</v>
+      </c>
+      <c r="D86">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>150</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="11">
+        <v>878043</v>
+      </c>
+      <c r="B87">
+        <v>-1</v>
+      </c>
+      <c r="C87">
+        <v>-1</v>
+      </c>
+      <c r="D87">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>160</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="11">
+        <v>878259</v>
+      </c>
+      <c r="B88">
+        <v>-1</v>
+      </c>
+      <c r="C88">
+        <v>-1</v>
+      </c>
+      <c r="D88">
+        <v>-1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>160</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="11">
+        <v>878039</v>
+      </c>
+      <c r="B89">
+        <v>-1</v>
+      </c>
+      <c r="C89">
+        <v>-1</v>
+      </c>
+      <c r="D89">
+        <v>-1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>180</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="11">
+        <v>878154</v>
+      </c>
+      <c r="B90">
+        <v>-1</v>
+      </c>
+      <c r="C90">
+        <v>-1</v>
+      </c>
+      <c r="D90">
+        <v>-1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>180</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="11">
+        <v>878038</v>
+      </c>
+      <c r="B91">
+        <v>-1</v>
+      </c>
+      <c r="C91">
+        <v>-1</v>
+      </c>
+      <c r="D91">
+        <v>-1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>200</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="9">
+        <v>878002</v>
+      </c>
+      <c r="B92">
+        <v>-1</v>
+      </c>
+      <c r="C92">
+        <v>-1</v>
+      </c>
+      <c r="D92">
+        <v>-1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="9">
+        <v>878025</v>
+      </c>
+      <c r="B93">
+        <v>-1</v>
+      </c>
+      <c r="C93">
+        <v>-1</v>
+      </c>
+      <c r="D93">
+        <v>-1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="9">
+        <v>878026</v>
+      </c>
+      <c r="B94">
+        <v>-1</v>
+      </c>
+      <c r="C94">
+        <v>-1</v>
+      </c>
+      <c r="D94">
+        <v>-1</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="9">
+        <v>878027</v>
+      </c>
+      <c r="B95">
+        <v>-1</v>
+      </c>
+      <c r="C95">
+        <v>-1</v>
+      </c>
+      <c r="D95">
+        <v>-1</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="9">
+        <v>878028</v>
+      </c>
+      <c r="B96">
+        <v>-1</v>
+      </c>
+      <c r="C96">
+        <v>-1</v>
+      </c>
+      <c r="D96">
+        <v>-1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="9">
+        <v>878030</v>
+      </c>
+      <c r="B97">
+        <v>-1</v>
+      </c>
+      <c r="C97">
+        <v>-1</v>
+      </c>
+      <c r="D97">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="9">
+        <v>878031</v>
+      </c>
+      <c r="B98">
+        <v>-1</v>
+      </c>
+      <c r="C98">
+        <v>-1</v>
+      </c>
+      <c r="D98">
+        <v>-1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="9">
+        <v>878032</v>
+      </c>
+      <c r="B99">
+        <v>-1</v>
+      </c>
+      <c r="C99">
+        <v>-1</v>
+      </c>
+      <c r="D99">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="9">
+        <v>878048</v>
+      </c>
+      <c r="B100">
+        <v>-1</v>
+      </c>
+      <c r="C100">
+        <v>-1</v>
+      </c>
+      <c r="D100">
+        <v>-1</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="9">
+        <v>878050</v>
+      </c>
+      <c r="B101">
+        <v>-1</v>
+      </c>
+      <c r="C101">
+        <v>-1</v>
+      </c>
+      <c r="D101">
+        <v>-1</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="9">
+        <v>878064</v>
+      </c>
+      <c r="B102">
+        <v>-1</v>
+      </c>
+      <c r="C102">
+        <v>-1</v>
+      </c>
+      <c r="D102">
+        <v>-1</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="9">
+        <v>878065</v>
+      </c>
+      <c r="B103">
+        <v>-1</v>
+      </c>
+      <c r="C103">
+        <v>-1</v>
+      </c>
+      <c r="D103">
+        <v>-1</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="9">
+        <v>878066</v>
+      </c>
+      <c r="B104">
+        <v>-1</v>
+      </c>
+      <c r="C104">
+        <v>-1</v>
+      </c>
+      <c r="D104">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="9">
+        <v>878067</v>
+      </c>
+      <c r="B105">
+        <v>-1</v>
+      </c>
+      <c r="C105">
+        <v>-1</v>
+      </c>
+      <c r="D105">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="9">
+        <v>878068</v>
+      </c>
+      <c r="B106">
+        <v>-1</v>
+      </c>
+      <c r="C106">
+        <v>-1</v>
+      </c>
+      <c r="D106">
+        <v>-1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="9">
+        <v>878069</v>
+      </c>
+      <c r="B107">
+        <v>-1</v>
+      </c>
+      <c r="C107">
+        <v>-1</v>
+      </c>
+      <c r="D107">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="9">
+        <v>878070</v>
+      </c>
+      <c r="B108">
+        <v>-1</v>
+      </c>
+      <c r="C108">
+        <v>-1</v>
+      </c>
+      <c r="D108">
+        <v>-1</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9">
+        <v>878071</v>
+      </c>
+      <c r="B109">
+        <v>-1</v>
+      </c>
+      <c r="C109">
+        <v>-1</v>
+      </c>
+      <c r="D109">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="9">
+        <v>878072</v>
+      </c>
+      <c r="B110">
+        <v>-1</v>
+      </c>
+      <c r="C110">
+        <v>-1</v>
+      </c>
+      <c r="D110">
+        <v>-1</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="9">
+        <v>878086</v>
+      </c>
+      <c r="B111">
+        <v>-1</v>
+      </c>
+      <c r="C111">
+        <v>-1</v>
+      </c>
+      <c r="D111">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="9">
+        <v>878087</v>
+      </c>
+      <c r="B112">
+        <v>-1</v>
+      </c>
+      <c r="C112">
+        <v>-1</v>
+      </c>
+      <c r="D112">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9">
+        <v>878090</v>
+      </c>
+      <c r="B113">
+        <v>-1</v>
+      </c>
+      <c r="C113">
+        <v>-1</v>
+      </c>
+      <c r="D113">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="9">
+        <v>878123</v>
+      </c>
+      <c r="B114">
+        <v>-1</v>
+      </c>
+      <c r="C114">
+        <v>-1</v>
+      </c>
+      <c r="D114">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="9">
+        <v>878124</v>
+      </c>
+      <c r="B115">
+        <v>-1</v>
+      </c>
+      <c r="C115">
+        <v>-1</v>
+      </c>
+      <c r="D115">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="9">
+        <v>878125</v>
+      </c>
+      <c r="B116">
+        <v>-1</v>
+      </c>
+      <c r="C116">
+        <v>-1</v>
+      </c>
+      <c r="D116">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="9">
+        <v>878130</v>
+      </c>
+      <c r="B117">
+        <v>-1</v>
+      </c>
+      <c r="C117">
+        <v>-1</v>
+      </c>
+      <c r="D117">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="9">
+        <v>878134</v>
+      </c>
+      <c r="B118">
+        <v>-1</v>
+      </c>
+      <c r="C118">
+        <v>-1</v>
+      </c>
+      <c r="D118">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="9">
+        <v>878145</v>
+      </c>
+      <c r="B119">
+        <v>-1</v>
+      </c>
+      <c r="C119">
+        <v>-1</v>
+      </c>
+      <c r="D119">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="9">
+        <v>878148</v>
+      </c>
+      <c r="B120">
+        <v>-1</v>
+      </c>
+      <c r="C120">
+        <v>-1</v>
+      </c>
+      <c r="D120">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="9">
+        <v>878158</v>
+      </c>
+      <c r="B121">
+        <v>-1</v>
+      </c>
+      <c r="C121">
+        <v>-1</v>
+      </c>
+      <c r="D121">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="9">
+        <v>878161</v>
+      </c>
+      <c r="B122">
+        <v>-1</v>
+      </c>
+      <c r="C122">
+        <v>-1</v>
+      </c>
+      <c r="D122">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9">
+        <v>878183</v>
+      </c>
+      <c r="B123">
+        <v>-1</v>
+      </c>
+      <c r="C123">
+        <v>-1</v>
+      </c>
+      <c r="D123">
+        <v>-1</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="9">
+        <v>878186</v>
+      </c>
+      <c r="B124">
+        <v>-1</v>
+      </c>
+      <c r="C124">
+        <v>-1</v>
+      </c>
+      <c r="D124">
+        <v>-1</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="9">
+        <v>878198</v>
+      </c>
+      <c r="B125">
+        <v>-1</v>
+      </c>
+      <c r="C125">
+        <v>-1</v>
+      </c>
+      <c r="D125">
+        <v>-1</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="9">
+        <v>878199</v>
+      </c>
+      <c r="B126">
+        <v>-1</v>
+      </c>
+      <c r="C126">
+        <v>-1</v>
+      </c>
+      <c r="D126">
+        <v>-1</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="9">
+        <v>878200</v>
+      </c>
+      <c r="B127">
+        <v>-1</v>
+      </c>
+      <c r="C127">
+        <v>-1</v>
+      </c>
+      <c r="D127">
+        <v>-1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="9">
+        <v>878201</v>
+      </c>
+      <c r="B128">
+        <v>-1</v>
+      </c>
+      <c r="C128">
+        <v>-1</v>
+      </c>
+      <c r="D128">
+        <v>-1</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="9">
+        <v>878202</v>
+      </c>
+      <c r="B129">
+        <v>-1</v>
+      </c>
+      <c r="C129">
+        <v>-1</v>
+      </c>
+      <c r="D129">
+        <v>-1</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="9">
+        <v>878203</v>
+      </c>
+      <c r="B130">
+        <v>-1</v>
+      </c>
+      <c r="C130">
+        <v>-1</v>
+      </c>
+      <c r="D130">
+        <v>-1</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="9">
+        <v>878204</v>
+      </c>
+      <c r="B131">
+        <v>-1</v>
+      </c>
+      <c r="C131">
+        <v>-1</v>
+      </c>
+      <c r="D131">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="9">
+        <v>878205</v>
+      </c>
+      <c r="B132">
+        <v>-1</v>
+      </c>
+      <c r="C132">
+        <v>-1</v>
+      </c>
+      <c r="D132">
+        <v>-1</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="9">
+        <v>878206</v>
+      </c>
+      <c r="B133">
+        <v>-1</v>
+      </c>
+      <c r="C133">
+        <v>-1</v>
+      </c>
+      <c r="D133">
+        <v>-1</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="9">
+        <v>878209</v>
+      </c>
+      <c r="B134">
+        <v>-1</v>
+      </c>
+      <c r="C134">
+        <v>-1</v>
+      </c>
+      <c r="D134">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="9">
+        <v>878212</v>
+      </c>
+      <c r="B135">
+        <v>-1</v>
+      </c>
+      <c r="C135">
+        <v>-1</v>
+      </c>
+      <c r="D135">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="9">
+        <v>878214</v>
+      </c>
+      <c r="B136">
+        <v>-1</v>
+      </c>
+      <c r="C136">
+        <v>-1</v>
+      </c>
+      <c r="D136">
+        <v>-1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="9">
+        <v>878215</v>
+      </c>
+      <c r="B137">
+        <v>-1</v>
+      </c>
+      <c r="C137">
+        <v>-1</v>
+      </c>
+      <c r="D137">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="9">
+        <v>878216</v>
+      </c>
+      <c r="B138">
+        <v>-1</v>
+      </c>
+      <c r="C138">
+        <v>-1</v>
+      </c>
+      <c r="D138">
+        <v>-1</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="9">
+        <v>878235</v>
+      </c>
+      <c r="B139">
+        <v>-1</v>
+      </c>
+      <c r="C139">
+        <v>-1</v>
+      </c>
+      <c r="D139">
+        <v>-1</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="9">
+        <v>878236</v>
+      </c>
+      <c r="B140">
+        <v>-1</v>
+      </c>
+      <c r="C140">
+        <v>-1</v>
+      </c>
+      <c r="D140">
+        <v>-1</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="9">
+        <v>878243</v>
+      </c>
+      <c r="B141">
+        <v>-1</v>
+      </c>
+      <c r="C141">
+        <v>-1</v>
+      </c>
+      <c r="D141">
+        <v>-1</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="9">
+        <v>878247</v>
+      </c>
+      <c r="B142">
+        <v>-1</v>
+      </c>
+      <c r="C142">
+        <v>-1</v>
+      </c>
+      <c r="D142">
+        <v>-1</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="9">
+        <v>878248</v>
+      </c>
+      <c r="B143">
+        <v>-1</v>
+      </c>
+      <c r="C143">
+        <v>-1</v>
+      </c>
+      <c r="D143">
+        <v>-1</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="9">
+        <v>878249</v>
+      </c>
+      <c r="B144">
+        <v>-1</v>
+      </c>
+      <c r="C144">
+        <v>-1</v>
+      </c>
+      <c r="D144">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="9">
+        <v>878251</v>
+      </c>
+      <c r="B145">
+        <v>-1</v>
+      </c>
+      <c r="C145">
+        <v>-1</v>
+      </c>
+      <c r="D145">
+        <v>-1</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="9">
+        <v>878272</v>
+      </c>
+      <c r="B146">
+        <v>-1</v>
+      </c>
+      <c r="C146">
+        <v>-1</v>
+      </c>
+      <c r="D146">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="9">
+        <v>878289</v>
+      </c>
+      <c r="B147">
+        <v>-1</v>
+      </c>
+      <c r="C147">
+        <v>-1</v>
+      </c>
+      <c r="D147">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="9">
+        <v>878290</v>
+      </c>
+      <c r="B148">
+        <v>-1</v>
+      </c>
+      <c r="C148">
+        <v>-1</v>
+      </c>
+      <c r="D148">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="9">
+        <v>878294</v>
+      </c>
+      <c r="B149">
+        <v>-1</v>
+      </c>
+      <c r="C149">
+        <v>-1</v>
+      </c>
+      <c r="D149">
+        <v>-1</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="9">
+        <v>878295</v>
+      </c>
+      <c r="B150">
+        <v>-1</v>
+      </c>
+      <c r="C150">
+        <v>-1</v>
+      </c>
+      <c r="D150">
+        <v>-1</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="9">
+        <v>878296</v>
+      </c>
+      <c r="B151">
+        <v>-1</v>
+      </c>
+      <c r="C151">
+        <v>-1</v>
+      </c>
+      <c r="D151">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="9">
+        <v>878297</v>
+      </c>
+      <c r="B152">
+        <v>-1</v>
+      </c>
+      <c r="C152">
+        <v>-1</v>
+      </c>
+      <c r="D152">
+        <v>-1</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="9">
+        <v>878298</v>
+      </c>
+      <c r="B153">
+        <v>-1</v>
+      </c>
+      <c r="C153">
+        <v>-1</v>
+      </c>
+      <c r="D153">
+        <v>-1</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="9">
+        <v>878299</v>
+      </c>
+      <c r="B154">
+        <v>-1</v>
+      </c>
+      <c r="C154">
+        <v>-1</v>
+      </c>
+      <c r="D154">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="9">
+        <v>878300</v>
+      </c>
+      <c r="B155">
+        <v>-1</v>
+      </c>
+      <c r="C155">
+        <v>-1</v>
+      </c>
+      <c r="D155">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="9">
+        <v>878307</v>
+      </c>
+      <c r="B156">
+        <v>-1</v>
+      </c>
+      <c r="C156">
+        <v>-1</v>
+      </c>
+      <c r="D156">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="9">
+        <v>878308</v>
+      </c>
+      <c r="B157">
+        <v>-1</v>
+      </c>
+      <c r="C157">
+        <v>-1</v>
+      </c>
+      <c r="D157">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="9">
+        <v>878314</v>
+      </c>
+      <c r="B158">
+        <v>-1</v>
+      </c>
+      <c r="C158">
+        <v>-1</v>
+      </c>
+      <c r="D158">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="9">
+        <v>878315</v>
+      </c>
+      <c r="B159">
+        <v>-1</v>
+      </c>
+      <c r="C159">
+        <v>-1</v>
+      </c>
+      <c r="D159">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="9">
+        <v>878316</v>
+      </c>
+      <c r="B160">
+        <v>-1</v>
+      </c>
+      <c r="C160">
+        <v>-1</v>
+      </c>
+      <c r="D160">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="9">
+        <v>878317</v>
+      </c>
+      <c r="B161">
+        <v>-1</v>
+      </c>
+      <c r="C161">
+        <v>-1</v>
+      </c>
+      <c r="D161">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="9">
+        <v>878318</v>
+      </c>
+      <c r="B162">
+        <v>-1</v>
+      </c>
+      <c r="C162">
+        <v>-1</v>
+      </c>
+      <c r="D162">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="9">
+        <v>878319</v>
+      </c>
+      <c r="B163">
+        <v>-1</v>
+      </c>
+      <c r="C163">
+        <v>-1</v>
+      </c>
+      <c r="D163">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="9">
+        <v>878320</v>
+      </c>
+      <c r="B164">
+        <v>-1</v>
+      </c>
+      <c r="C164">
+        <v>-1</v>
+      </c>
+      <c r="D164">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="9">
+        <v>878321</v>
+      </c>
+      <c r="B165">
+        <v>-1</v>
+      </c>
+      <c r="C165">
+        <v>-1</v>
+      </c>
+      <c r="D165">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="9">
+        <v>878322</v>
+      </c>
+      <c r="B166">
+        <v>-1</v>
+      </c>
+      <c r="C166">
+        <v>-1</v>
+      </c>
+      <c r="D166">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="9">
+        <v>878328</v>
+      </c>
+      <c r="B167">
+        <v>-1</v>
+      </c>
+      <c r="C167">
+        <v>-1</v>
+      </c>
+      <c r="D167">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="9">
+        <v>878329</v>
+      </c>
+      <c r="B168">
+        <v>-1</v>
+      </c>
+      <c r="C168">
+        <v>-1</v>
+      </c>
+      <c r="D168">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="9">
+        <v>878330</v>
+      </c>
+      <c r="B169">
+        <v>-1</v>
+      </c>
+      <c r="C169">
+        <v>-1</v>
+      </c>
+      <c r="D169">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="9">
+        <v>878331</v>
+      </c>
+      <c r="B170">
+        <v>-1</v>
+      </c>
+      <c r="C170">
+        <v>-1</v>
+      </c>
+      <c r="D170">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="9">
+        <v>878351</v>
+      </c>
+      <c r="B171">
+        <v>-1</v>
+      </c>
+      <c r="C171">
+        <v>-1</v>
+      </c>
+      <c r="D171">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="9">
+        <v>878352</v>
+      </c>
+      <c r="B172">
+        <v>-1</v>
+      </c>
+      <c r="C172">
+        <v>-1</v>
+      </c>
+      <c r="D172">
+        <v>-1</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="9">
+        <v>878366</v>
+      </c>
+      <c r="B173">
+        <v>-1</v>
+      </c>
+      <c r="C173">
+        <v>-1</v>
+      </c>
+      <c r="D173">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="9">
+        <v>878367</v>
+      </c>
+      <c r="B174">
+        <v>-1</v>
+      </c>
+      <c r="C174">
+        <v>-1</v>
+      </c>
+      <c r="D174">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="9">
+        <v>878382</v>
+      </c>
+      <c r="B175">
+        <v>-1</v>
+      </c>
+      <c r="C175">
+        <v>-1</v>
+      </c>
+      <c r="D175">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="9">
+        <v>878383</v>
+      </c>
+      <c r="B176">
+        <v>-1</v>
+      </c>
+      <c r="C176">
+        <v>-1</v>
+      </c>
+      <c r="D176">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="7">
+        <v>879001</v>
+      </c>
+      <c r="B177">
+        <v>-1</v>
+      </c>
+      <c r="C177">
+        <v>-1</v>
+      </c>
+      <c r="D177">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7">
+        <v>879002</v>
+      </c>
+      <c r="B178">
+        <v>-1</v>
+      </c>
+      <c r="C178">
+        <v>-1</v>
+      </c>
+      <c r="D178">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7">
+        <v>879004</v>
+      </c>
+      <c r="B179">
+        <v>-1</v>
+      </c>
+      <c r="C179">
+        <v>-1</v>
+      </c>
+      <c r="D179">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7">
+        <v>879005</v>
+      </c>
+      <c r="B180">
+        <v>-1</v>
+      </c>
+      <c r="C180">
+        <v>-1</v>
+      </c>
+      <c r="D180">
+        <v>-1</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7">
+        <v>879006</v>
+      </c>
+      <c r="B181">
+        <v>-1</v>
+      </c>
+      <c r="C181">
+        <v>-1</v>
+      </c>
+      <c r="D181">
+        <v>-1</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7">
+        <v>879007</v>
+      </c>
+      <c r="B182">
+        <v>-1</v>
+      </c>
+      <c r="C182">
+        <v>-1</v>
+      </c>
+      <c r="D182">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7">
+        <v>879008</v>
+      </c>
+      <c r="B183">
+        <v>-1</v>
+      </c>
+      <c r="C183">
+        <v>-1</v>
+      </c>
+      <c r="D183">
+        <v>-1</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="7">
+        <v>879009</v>
+      </c>
+      <c r="B184">
+        <v>-1</v>
+      </c>
+      <c r="C184">
+        <v>-1</v>
+      </c>
+      <c r="D184">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7">
+        <v>879011</v>
+      </c>
+      <c r="B185">
+        <v>-1</v>
+      </c>
+      <c r="C185">
+        <v>-1</v>
+      </c>
+      <c r="D185">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7">
+        <v>879013</v>
+      </c>
+      <c r="B186">
+        <v>-1</v>
+      </c>
+      <c r="C186">
+        <v>-1</v>
+      </c>
+      <c r="D186">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7">
+        <v>879015</v>
+      </c>
+      <c r="B187">
+        <v>-1</v>
+      </c>
+      <c r="C187">
+        <v>-1</v>
+      </c>
+      <c r="D187">
+        <v>-1</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="7">
+        <v>879016</v>
+      </c>
+      <c r="B188">
+        <v>-1</v>
+      </c>
+      <c r="C188">
+        <v>-1</v>
+      </c>
+      <c r="D188">
+        <v>-1</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="7">
+        <v>879017</v>
+      </c>
+      <c r="B189">
+        <v>-1</v>
+      </c>
+      <c r="C189">
+        <v>-1</v>
+      </c>
+      <c r="D189">
+        <v>-1</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="7">
+        <v>879901</v>
+      </c>
+      <c r="B190">
+        <v>-1</v>
+      </c>
+      <c r="C190">
+        <v>-1</v>
+      </c>
+      <c r="D190">
+        <v>-1</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="7">
+        <v>879904</v>
+      </c>
+      <c r="B191">
+        <v>-1</v>
+      </c>
+      <c r="C191">
+        <v>-1</v>
+      </c>
+      <c r="D191">
+        <v>-1</v>
+      </c>
+      <c r="E191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="7">
+        <v>879906</v>
+      </c>
+      <c r="B192">
+        <v>-1</v>
+      </c>
+      <c r="C192">
+        <v>-1</v>
+      </c>
+      <c r="D192">
+        <v>-1</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="7">
+        <v>879913</v>
+      </c>
+      <c r="B193">
+        <v>-1</v>
+      </c>
+      <c r="C193">
+        <v>-1</v>
+      </c>
+      <c r="D193">
+        <v>-1</v>
+      </c>
+      <c r="E193" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1165,5 +4354,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel文件/xiakeqian/侠客参数随机表.xlsx
+++ b/Excel文件/xiakeqian/侠客参数随机表.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9098D9-A7AE-4A34-AD15-CA0441DD920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DLC_CharacterDataExtension" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -355,8 +356,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,33 +457,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,7 +525,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -554,6 +559,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -588,9 +594,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,16 +770,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="K185" sqref="K185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,808 +796,808 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>100033</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>100060</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="12">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>100078</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="12">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>100082</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="12">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>100091</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="12">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>100134</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="12">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>100135</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="12">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>100297</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>100021</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>100043</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>100054</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>100056</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8">
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>100419</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="9">
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>200000</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8">
+    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>200022</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="8">
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>200039</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="8">
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>200044</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="8">
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>210048</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="8">
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>800035</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="8">
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>800092</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="8">
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>878150</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="8">
+    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>878155</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="8">
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>878162</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="8">
+    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>878178</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="8">
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>878188</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="8">
+    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>878208</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="8">
+    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>878217</v>
       </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="8">
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>878224</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="8">
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>878226</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="8">
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>878228</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="8">
+    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>878241</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="8">
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>878242</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="9">
+    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>878262</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="10">
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>878263</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="9">
+    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>878265</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="8">
+    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>878271</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="8">
+    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>878273</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="8">
+    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>878274</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="8">
+    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>878275</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="8">
+    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>878281</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="11">
+    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>878008</v>
       </c>
       <c r="B42">
@@ -1605,12 +1612,12 @@
       <c r="E42">
         <v>45</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="11">
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>878013</v>
       </c>
       <c r="B43">
@@ -1625,12 +1632,12 @@
       <c r="E43">
         <v>45</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="11">
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>878009</v>
       </c>
       <c r="B44">
@@ -1645,12 +1652,12 @@
       <c r="E44">
         <v>80</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="11">
+    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>878019</v>
       </c>
       <c r="B45">
@@ -1665,12 +1672,12 @@
       <c r="E45">
         <v>45</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="11">
+    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>878094</v>
       </c>
       <c r="B46">
@@ -1685,12 +1692,12 @@
       <c r="E46">
         <v>45</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="11">
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>878015</v>
       </c>
       <c r="B47">
@@ -1705,12 +1712,12 @@
       <c r="E47">
         <v>45</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="11">
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>878218</v>
       </c>
       <c r="B48">
@@ -1725,12 +1732,12 @@
       <c r="E48">
         <v>45</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="11">
+    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
         <v>878014</v>
       </c>
       <c r="B49">
@@ -1745,12 +1752,12 @@
       <c r="E49">
         <v>80</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="11">
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>878052</v>
       </c>
       <c r="B50">
@@ -1765,12 +1772,12 @@
       <c r="E50">
         <v>45</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="11">
+    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>878021</v>
       </c>
       <c r="B51">
@@ -1785,12 +1792,12 @@
       <c r="E51">
         <v>45</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="11">
+    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>878023</v>
       </c>
       <c r="B52">
@@ -1805,12 +1812,12 @@
       <c r="E52">
         <v>105</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="11">
+    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>878024</v>
       </c>
       <c r="B53">
@@ -1825,12 +1832,12 @@
       <c r="E53">
         <v>105</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="11">
+    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
         <v>878033</v>
       </c>
       <c r="B54">
@@ -1845,12 +1852,12 @@
       <c r="E54">
         <v>60</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="11">
+    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
         <v>878219</v>
       </c>
       <c r="B55">
@@ -1865,12 +1872,12 @@
       <c r="E55">
         <v>60</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="11">
+    <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>878049</v>
       </c>
       <c r="B56">
@@ -1885,12 +1892,12 @@
       <c r="E56">
         <v>60</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="11">
+    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
         <v>878093</v>
       </c>
       <c r="B57">
@@ -1905,12 +1912,12 @@
       <c r="E57">
         <v>60</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="11">
+    <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>879012</v>
       </c>
       <c r="B58">
@@ -1925,12 +1932,12 @@
       <c r="E58">
         <v>120</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="11">
+    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>879014</v>
       </c>
       <c r="B59">
@@ -1945,12 +1952,12 @@
       <c r="E59">
         <v>120</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="11">
+    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>879010</v>
       </c>
       <c r="B60">
@@ -1965,12 +1972,12 @@
       <c r="E60">
         <v>120</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="11">
+    <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
         <v>878190</v>
       </c>
       <c r="B61">
@@ -1985,12 +1992,12 @@
       <c r="E61">
         <v>120</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="11">
+    <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>878182</v>
       </c>
       <c r="B62">
@@ -2005,12 +2012,12 @@
       <c r="E62">
         <v>120</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="11">
+    <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
         <v>878303</v>
       </c>
       <c r="B63">
@@ -2025,12 +2032,12 @@
       <c r="E63">
         <v>80</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="11">
+    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
         <v>878304</v>
       </c>
       <c r="B64">
@@ -2045,12 +2052,12 @@
       <c r="E64">
         <v>80</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="J64" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="11">
+    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
         <v>878016</v>
       </c>
       <c r="B65">
@@ -2065,12 +2072,12 @@
       <c r="E65">
         <v>80</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="J65" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="11">
+    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
         <v>878017</v>
       </c>
       <c r="B66">
@@ -2085,12 +2092,12 @@
       <c r="E66">
         <v>80</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J66" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="11">
+    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
         <v>878063</v>
       </c>
       <c r="B67">
@@ -2105,12 +2112,12 @@
       <c r="E67">
         <v>80</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="J67" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="11">
+    <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
         <v>878035</v>
       </c>
       <c r="B68">
@@ -2125,12 +2132,12 @@
       <c r="E68">
         <v>135</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="11">
+    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
         <v>878045</v>
       </c>
       <c r="B69">
@@ -2142,15 +2149,15 @@
       <c r="D69">
         <v>-1</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69">
         <v>135</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="J69" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="11">
+    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
         <v>878037</v>
       </c>
       <c r="B70">
@@ -2162,15 +2169,15 @@
       <c r="D70">
         <v>-1</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70">
         <v>135</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J70" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="11">
+    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
         <v>878138</v>
       </c>
       <c r="B71">
@@ -2185,12 +2192,12 @@
       <c r="E71">
         <v>90</v>
       </c>
-      <c r="J71" s="5" t="s">
+      <c r="J71" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="11">
+    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
         <v>878133</v>
       </c>
       <c r="B72">
@@ -2202,15 +2209,15 @@
       <c r="D72">
         <v>-1</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72">
         <v>90</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="J72" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="11">
+    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
         <v>878234</v>
       </c>
       <c r="B73">
@@ -2222,15 +2229,15 @@
       <c r="D73">
         <v>-1</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73">
         <v>90</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="J73" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="11">
+    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
         <v>878285</v>
       </c>
       <c r="B74">
@@ -2242,15 +2249,15 @@
       <c r="D74">
         <v>-1</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74">
         <v>90</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J74" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="11">
+    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
         <v>878081</v>
       </c>
       <c r="B75">
@@ -2262,15 +2269,15 @@
       <c r="D75">
         <v>-1</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75">
         <v>90</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="J75" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="11">
+    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
         <v>878323</v>
       </c>
       <c r="B76">
@@ -2285,12 +2292,12 @@
       <c r="E76">
         <v>150</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="J76" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="11">
+    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
         <v>878132</v>
       </c>
       <c r="B77">
@@ -2305,12 +2312,12 @@
       <c r="E77">
         <v>150</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J77" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="11">
+    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
         <v>878136</v>
       </c>
       <c r="B78">
@@ -2325,12 +2332,12 @@
       <c r="E78">
         <v>150</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="J78" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="11">
+    <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
         <v>878135</v>
       </c>
       <c r="B79">
@@ -2345,12 +2352,12 @@
       <c r="E79">
         <v>150</v>
       </c>
-      <c r="J79" s="5" t="s">
+      <c r="J79" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="11">
+    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
         <v>878268</v>
       </c>
       <c r="B80">
@@ -2365,12 +2372,12 @@
       <c r="E80">
         <v>100</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J80" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="11">
+    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
         <v>878082</v>
       </c>
       <c r="B81">
@@ -2382,15 +2389,15 @@
       <c r="D81">
         <v>-1</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81">
         <v>100</v>
       </c>
-      <c r="J81" s="5" t="s">
+      <c r="J81" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="11">
+    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
         <v>878276</v>
       </c>
       <c r="B82">
@@ -2402,15 +2409,15 @@
       <c r="D82">
         <v>-1</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82">
         <v>120</v>
       </c>
-      <c r="J82" s="5" t="s">
+      <c r="J82" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="11">
+    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
         <v>878083</v>
       </c>
       <c r="B83">
@@ -2422,15 +2429,15 @@
       <c r="D83">
         <v>-1</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83">
         <v>135</v>
       </c>
-      <c r="J83" s="5" t="s">
+      <c r="J83" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="11">
+    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
         <v>878376</v>
       </c>
       <c r="B84">
@@ -2442,15 +2449,15 @@
       <c r="D84">
         <v>-1</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84">
         <v>135</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="J84" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="11">
+    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
         <v>878258</v>
       </c>
       <c r="B85">
@@ -2465,12 +2472,12 @@
       <c r="E85">
         <v>150</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J85" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="11">
+    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
         <v>878257</v>
       </c>
       <c r="B86">
@@ -2482,15 +2489,15 @@
       <c r="D86">
         <v>-1</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86">
         <v>150</v>
       </c>
-      <c r="J86" s="5" t="s">
+      <c r="J86" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="11">
+    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="8">
         <v>878043</v>
       </c>
       <c r="B87">
@@ -2502,15 +2509,15 @@
       <c r="D87">
         <v>-1</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87">
         <v>160</v>
       </c>
-      <c r="J87" s="5" t="s">
+      <c r="J87" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="11">
+    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
         <v>878259</v>
       </c>
       <c r="B88">
@@ -2522,15 +2529,15 @@
       <c r="D88">
         <v>-1</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88">
         <v>160</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J88" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="11">
+    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
         <v>878039</v>
       </c>
       <c r="B89">
@@ -2542,15 +2549,15 @@
       <c r="D89">
         <v>-1</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89">
         <v>180</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J89" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="11">
+    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
         <v>878154</v>
       </c>
       <c r="B90">
@@ -2562,15 +2569,15 @@
       <c r="D90">
         <v>-1</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90">
         <v>180</v>
       </c>
-      <c r="J90" s="5" t="s">
+      <c r="J90" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="11">
+    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
         <v>878038</v>
       </c>
       <c r="B91">
@@ -2582,15 +2589,15 @@
       <c r="D91">
         <v>-1</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91">
         <v>200</v>
       </c>
-      <c r="J91" s="5" t="s">
+      <c r="J91" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="9">
+    <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
         <v>878002</v>
       </c>
       <c r="B92">
@@ -2606,8 +2613,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="9">
+    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <v>878025</v>
       </c>
       <c r="B93">
@@ -2619,12 +2626,12 @@
       <c r="D93">
         <v>-1</v>
       </c>
-      <c r="E93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="9">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
         <v>878026</v>
       </c>
       <c r="B94">
@@ -2636,12 +2643,12 @@
       <c r="D94">
         <v>-1</v>
       </c>
-      <c r="E94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="9">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
         <v>878027</v>
       </c>
       <c r="B95">
@@ -2653,12 +2660,12 @@
       <c r="D95">
         <v>-1</v>
       </c>
-      <c r="E95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="9">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
         <v>878028</v>
       </c>
       <c r="B96">
@@ -2670,12 +2677,12 @@
       <c r="D96">
         <v>-1</v>
       </c>
-      <c r="E96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="9">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
         <v>878030</v>
       </c>
       <c r="B97">
@@ -2687,12 +2694,12 @@
       <c r="D97">
         <v>-1</v>
       </c>
-      <c r="E97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="9">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
         <v>878031</v>
       </c>
       <c r="B98">
@@ -2704,12 +2711,12 @@
       <c r="D98">
         <v>-1</v>
       </c>
-      <c r="E98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="9">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
         <v>878032</v>
       </c>
       <c r="B99">
@@ -2721,12 +2728,12 @@
       <c r="D99">
         <v>-1</v>
       </c>
-      <c r="E99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="9">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <v>878048</v>
       </c>
       <c r="B100">
@@ -2738,12 +2745,12 @@
       <c r="D100">
         <v>-1</v>
       </c>
-      <c r="E100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="9">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <v>878050</v>
       </c>
       <c r="B101">
@@ -2755,12 +2762,12 @@
       <c r="D101">
         <v>-1</v>
       </c>
-      <c r="E101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="9">
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
         <v>878064</v>
       </c>
       <c r="B102">
@@ -2772,12 +2779,12 @@
       <c r="D102">
         <v>-1</v>
       </c>
-      <c r="E102" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="9">
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>878065</v>
       </c>
       <c r="B103">
@@ -2789,12 +2796,12 @@
       <c r="D103">
         <v>-1</v>
       </c>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="9">
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
         <v>878066</v>
       </c>
       <c r="B104">
@@ -2806,12 +2813,12 @@
       <c r="D104">
         <v>-1</v>
       </c>
-      <c r="E104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="9">
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
         <v>878067</v>
       </c>
       <c r="B105">
@@ -2823,12 +2830,12 @@
       <c r="D105">
         <v>-1</v>
       </c>
-      <c r="E105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="9">
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <v>878068</v>
       </c>
       <c r="B106">
@@ -2840,12 +2847,12 @@
       <c r="D106">
         <v>-1</v>
       </c>
-      <c r="E106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="9">
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
         <v>878069</v>
       </c>
       <c r="B107">
@@ -2857,12 +2864,12 @@
       <c r="D107">
         <v>-1</v>
       </c>
-      <c r="E107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="9">
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
         <v>878070</v>
       </c>
       <c r="B108">
@@ -2874,12 +2881,12 @@
       <c r="D108">
         <v>-1</v>
       </c>
-      <c r="E108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="9">
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
         <v>878071</v>
       </c>
       <c r="B109">
@@ -2891,12 +2898,12 @@
       <c r="D109">
         <v>-1</v>
       </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="9">
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
         <v>878072</v>
       </c>
       <c r="B110">
@@ -2908,12 +2915,12 @@
       <c r="D110">
         <v>-1</v>
       </c>
-      <c r="E110" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="9">
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
         <v>878086</v>
       </c>
       <c r="B111">
@@ -2925,12 +2932,12 @@
       <c r="D111">
         <v>-1</v>
       </c>
-      <c r="E111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="9">
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
         <v>878087</v>
       </c>
       <c r="B112">
@@ -2942,12 +2949,12 @@
       <c r="D112">
         <v>-1</v>
       </c>
-      <c r="E112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="9">
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
         <v>878090</v>
       </c>
       <c r="B113">
@@ -2959,12 +2966,12 @@
       <c r="D113">
         <v>-1</v>
       </c>
-      <c r="E113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="9">
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
         <v>878123</v>
       </c>
       <c r="B114">
@@ -2976,12 +2983,12 @@
       <c r="D114">
         <v>-1</v>
       </c>
-      <c r="E114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="9">
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
         <v>878124</v>
       </c>
       <c r="B115">
@@ -2993,12 +3000,12 @@
       <c r="D115">
         <v>-1</v>
       </c>
-      <c r="E115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="9">
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
         <v>878125</v>
       </c>
       <c r="B116">
@@ -3010,12 +3017,12 @@
       <c r="D116">
         <v>-1</v>
       </c>
-      <c r="E116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="9">
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
         <v>878130</v>
       </c>
       <c r="B117">
@@ -3027,12 +3034,12 @@
       <c r="D117">
         <v>-1</v>
       </c>
-      <c r="E117" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="9">
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
         <v>878134</v>
       </c>
       <c r="B118">
@@ -3044,12 +3051,12 @@
       <c r="D118">
         <v>-1</v>
       </c>
-      <c r="E118" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="9">
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
         <v>878145</v>
       </c>
       <c r="B119">
@@ -3061,12 +3068,12 @@
       <c r="D119">
         <v>-1</v>
       </c>
-      <c r="E119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="9">
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
         <v>878148</v>
       </c>
       <c r="B120">
@@ -3078,12 +3085,12 @@
       <c r="D120">
         <v>-1</v>
       </c>
-      <c r="E120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="9">
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
         <v>878158</v>
       </c>
       <c r="B121">
@@ -3095,12 +3102,12 @@
       <c r="D121">
         <v>-1</v>
       </c>
-      <c r="E121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="9">
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
         <v>878161</v>
       </c>
       <c r="B122">
@@ -3112,12 +3119,12 @@
       <c r="D122">
         <v>-1</v>
       </c>
-      <c r="E122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="9">
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
         <v>878183</v>
       </c>
       <c r="B123">
@@ -3129,12 +3136,12 @@
       <c r="D123">
         <v>-1</v>
       </c>
-      <c r="E123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="9">
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
         <v>878186</v>
       </c>
       <c r="B124">
@@ -3146,12 +3153,12 @@
       <c r="D124">
         <v>-1</v>
       </c>
-      <c r="E124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="9">
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
         <v>878198</v>
       </c>
       <c r="B125">
@@ -3163,12 +3170,12 @@
       <c r="D125">
         <v>-1</v>
       </c>
-      <c r="E125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="9">
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
         <v>878199</v>
       </c>
       <c r="B126">
@@ -3180,12 +3187,12 @@
       <c r="D126">
         <v>-1</v>
       </c>
-      <c r="E126" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="9">
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
         <v>878200</v>
       </c>
       <c r="B127">
@@ -3197,12 +3204,12 @@
       <c r="D127">
         <v>-1</v>
       </c>
-      <c r="E127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="9">
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
         <v>878201</v>
       </c>
       <c r="B128">
@@ -3214,12 +3221,12 @@
       <c r="D128">
         <v>-1</v>
       </c>
-      <c r="E128" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="9">
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
         <v>878202</v>
       </c>
       <c r="B129">
@@ -3231,12 +3238,12 @@
       <c r="D129">
         <v>-1</v>
       </c>
-      <c r="E129" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="9">
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
         <v>878203</v>
       </c>
       <c r="B130">
@@ -3248,12 +3255,12 @@
       <c r="D130">
         <v>-1</v>
       </c>
-      <c r="E130" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="9">
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
         <v>878204</v>
       </c>
       <c r="B131">
@@ -3265,12 +3272,12 @@
       <c r="D131">
         <v>-1</v>
       </c>
-      <c r="E131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="9">
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
         <v>878205</v>
       </c>
       <c r="B132">
@@ -3282,12 +3289,12 @@
       <c r="D132">
         <v>-1</v>
       </c>
-      <c r="E132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="9">
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
         <v>878206</v>
       </c>
       <c r="B133">
@@ -3299,12 +3306,12 @@
       <c r="D133">
         <v>-1</v>
       </c>
-      <c r="E133" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="9">
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
         <v>878209</v>
       </c>
       <c r="B134">
@@ -3316,12 +3323,12 @@
       <c r="D134">
         <v>-1</v>
       </c>
-      <c r="E134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="9">
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
         <v>878212</v>
       </c>
       <c r="B135">
@@ -3333,12 +3340,12 @@
       <c r="D135">
         <v>-1</v>
       </c>
-      <c r="E135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="9">
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
         <v>878214</v>
       </c>
       <c r="B136">
@@ -3350,12 +3357,12 @@
       <c r="D136">
         <v>-1</v>
       </c>
-      <c r="E136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="9">
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
         <v>878215</v>
       </c>
       <c r="B137">
@@ -3367,12 +3374,12 @@
       <c r="D137">
         <v>-1</v>
       </c>
-      <c r="E137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="9">
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
         <v>878216</v>
       </c>
       <c r="B138">
@@ -3384,12 +3391,12 @@
       <c r="D138">
         <v>-1</v>
       </c>
-      <c r="E138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="9">
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
         <v>878235</v>
       </c>
       <c r="B139">
@@ -3401,12 +3408,12 @@
       <c r="D139">
         <v>-1</v>
       </c>
-      <c r="E139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="9">
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
         <v>878236</v>
       </c>
       <c r="B140">
@@ -3418,12 +3425,12 @@
       <c r="D140">
         <v>-1</v>
       </c>
-      <c r="E140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="9">
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
         <v>878243</v>
       </c>
       <c r="B141">
@@ -3435,12 +3442,12 @@
       <c r="D141">
         <v>-1</v>
       </c>
-      <c r="E141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="9">
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
         <v>878247</v>
       </c>
       <c r="B142">
@@ -3452,12 +3459,12 @@
       <c r="D142">
         <v>-1</v>
       </c>
-      <c r="E142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="9">
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
         <v>878248</v>
       </c>
       <c r="B143">
@@ -3469,12 +3476,12 @@
       <c r="D143">
         <v>-1</v>
       </c>
-      <c r="E143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="9">
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
         <v>878249</v>
       </c>
       <c r="B144">
@@ -3486,12 +3493,12 @@
       <c r="D144">
         <v>-1</v>
       </c>
-      <c r="E144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="9">
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
         <v>878251</v>
       </c>
       <c r="B145">
@@ -3503,12 +3510,12 @@
       <c r="D145">
         <v>-1</v>
       </c>
-      <c r="E145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="9">
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
         <v>878272</v>
       </c>
       <c r="B146">
@@ -3520,12 +3527,12 @@
       <c r="D146">
         <v>-1</v>
       </c>
-      <c r="E146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="9">
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
         <v>878289</v>
       </c>
       <c r="B147">
@@ -3537,12 +3544,12 @@
       <c r="D147">
         <v>-1</v>
       </c>
-      <c r="E147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="9">
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A148" s="6">
         <v>878290</v>
       </c>
       <c r="B148">
@@ -3554,12 +3561,12 @@
       <c r="D148">
         <v>-1</v>
       </c>
-      <c r="E148" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="9">
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
         <v>878294</v>
       </c>
       <c r="B149">
@@ -3571,12 +3578,12 @@
       <c r="D149">
         <v>-1</v>
       </c>
-      <c r="E149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="9">
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A150" s="6">
         <v>878295</v>
       </c>
       <c r="B150">
@@ -3588,12 +3595,12 @@
       <c r="D150">
         <v>-1</v>
       </c>
-      <c r="E150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="9">
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
         <v>878296</v>
       </c>
       <c r="B151">
@@ -3605,12 +3612,12 @@
       <c r="D151">
         <v>-1</v>
       </c>
-      <c r="E151" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="9">
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
         <v>878297</v>
       </c>
       <c r="B152">
@@ -3622,12 +3629,12 @@
       <c r="D152">
         <v>-1</v>
       </c>
-      <c r="E152" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="9">
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
         <v>878298</v>
       </c>
       <c r="B153">
@@ -3639,12 +3646,12 @@
       <c r="D153">
         <v>-1</v>
       </c>
-      <c r="E153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="9">
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
         <v>878299</v>
       </c>
       <c r="B154">
@@ -3656,12 +3663,12 @@
       <c r="D154">
         <v>-1</v>
       </c>
-      <c r="E154" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="9">
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
         <v>878300</v>
       </c>
       <c r="B155">
@@ -3673,12 +3680,12 @@
       <c r="D155">
         <v>-1</v>
       </c>
-      <c r="E155" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="9">
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
         <v>878307</v>
       </c>
       <c r="B156">
@@ -3690,12 +3697,12 @@
       <c r="D156">
         <v>-1</v>
       </c>
-      <c r="E156" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="9">
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
         <v>878308</v>
       </c>
       <c r="B157">
@@ -3707,12 +3714,12 @@
       <c r="D157">
         <v>-1</v>
       </c>
-      <c r="E157" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="9">
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A158" s="6">
         <v>878314</v>
       </c>
       <c r="B158">
@@ -3724,12 +3731,12 @@
       <c r="D158">
         <v>-1</v>
       </c>
-      <c r="E158" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="9">
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A159" s="6">
         <v>878315</v>
       </c>
       <c r="B159">
@@ -3741,12 +3748,12 @@
       <c r="D159">
         <v>-1</v>
       </c>
-      <c r="E159" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="9">
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
         <v>878316</v>
       </c>
       <c r="B160">
@@ -3758,12 +3765,12 @@
       <c r="D160">
         <v>-1</v>
       </c>
-      <c r="E160" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="9">
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
         <v>878317</v>
       </c>
       <c r="B161">
@@ -3775,12 +3782,12 @@
       <c r="D161">
         <v>-1</v>
       </c>
-      <c r="E161" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="9">
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A162" s="6">
         <v>878318</v>
       </c>
       <c r="B162">
@@ -3792,12 +3799,12 @@
       <c r="D162">
         <v>-1</v>
       </c>
-      <c r="E162" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="9">
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
         <v>878319</v>
       </c>
       <c r="B163">
@@ -3809,12 +3816,12 @@
       <c r="D163">
         <v>-1</v>
       </c>
-      <c r="E163" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="9">
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
         <v>878320</v>
       </c>
       <c r="B164">
@@ -3826,12 +3833,12 @@
       <c r="D164">
         <v>-1</v>
       </c>
-      <c r="E164" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="9">
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
         <v>878321</v>
       </c>
       <c r="B165">
@@ -3843,12 +3850,12 @@
       <c r="D165">
         <v>-1</v>
       </c>
-      <c r="E165" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="9">
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
         <v>878322</v>
       </c>
       <c r="B166">
@@ -3860,12 +3867,12 @@
       <c r="D166">
         <v>-1</v>
       </c>
-      <c r="E166" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="9">
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
         <v>878328</v>
       </c>
       <c r="B167">
@@ -3877,12 +3884,12 @@
       <c r="D167">
         <v>-1</v>
       </c>
-      <c r="E167" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="9">
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
         <v>878329</v>
       </c>
       <c r="B168">
@@ -3894,12 +3901,12 @@
       <c r="D168">
         <v>-1</v>
       </c>
-      <c r="E168" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="9">
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
         <v>878330</v>
       </c>
       <c r="B169">
@@ -3911,12 +3918,12 @@
       <c r="D169">
         <v>-1</v>
       </c>
-      <c r="E169" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="9">
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
         <v>878331</v>
       </c>
       <c r="B170">
@@ -3928,12 +3935,12 @@
       <c r="D170">
         <v>-1</v>
       </c>
-      <c r="E170" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="9">
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
         <v>878351</v>
       </c>
       <c r="B171">
@@ -3945,12 +3952,12 @@
       <c r="D171">
         <v>-1</v>
       </c>
-      <c r="E171" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="9">
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
         <v>878352</v>
       </c>
       <c r="B172">
@@ -3962,12 +3969,12 @@
       <c r="D172">
         <v>-1</v>
       </c>
-      <c r="E172" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="9">
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
         <v>878366</v>
       </c>
       <c r="B173">
@@ -3979,12 +3986,12 @@
       <c r="D173">
         <v>-1</v>
       </c>
-      <c r="E173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="9">
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
         <v>878367</v>
       </c>
       <c r="B174">
@@ -3996,12 +4003,12 @@
       <c r="D174">
         <v>-1</v>
       </c>
-      <c r="E174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="9">
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
         <v>878382</v>
       </c>
       <c r="B175">
@@ -4013,12 +4020,12 @@
       <c r="D175">
         <v>-1</v>
       </c>
-      <c r="E175" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="9">
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
         <v>878383</v>
       </c>
       <c r="B176">
@@ -4030,12 +4037,12 @@
       <c r="D176">
         <v>-1</v>
       </c>
-      <c r="E176" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="7">
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
         <v>879001</v>
       </c>
       <c r="B177">
@@ -4047,12 +4054,12 @@
       <c r="D177">
         <v>-1</v>
       </c>
-      <c r="E177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="7">
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
         <v>879002</v>
       </c>
       <c r="B178">
@@ -4064,12 +4071,12 @@
       <c r="D178">
         <v>-1</v>
       </c>
-      <c r="E178" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="7">
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
         <v>879004</v>
       </c>
       <c r="B179">
@@ -4081,12 +4088,12 @@
       <c r="D179">
         <v>-1</v>
       </c>
-      <c r="E179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="7">
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
         <v>879005</v>
       </c>
       <c r="B180">
@@ -4098,12 +4105,12 @@
       <c r="D180">
         <v>-1</v>
       </c>
-      <c r="E180" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="7">
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
         <v>879006</v>
       </c>
       <c r="B181">
@@ -4115,12 +4122,12 @@
       <c r="D181">
         <v>-1</v>
       </c>
-      <c r="E181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="7">
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
         <v>879007</v>
       </c>
       <c r="B182">
@@ -4132,12 +4139,12 @@
       <c r="D182">
         <v>-1</v>
       </c>
-      <c r="E182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="7">
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
         <v>879008</v>
       </c>
       <c r="B183">
@@ -4149,12 +4156,12 @@
       <c r="D183">
         <v>-1</v>
       </c>
-      <c r="E183" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="7">
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
         <v>879009</v>
       </c>
       <c r="B184">
@@ -4166,12 +4173,12 @@
       <c r="D184">
         <v>-1</v>
       </c>
-      <c r="E184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="7">
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
         <v>879011</v>
       </c>
       <c r="B185">
@@ -4183,12 +4190,12 @@
       <c r="D185">
         <v>-1</v>
       </c>
-      <c r="E185" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="7">
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
         <v>879013</v>
       </c>
       <c r="B186">
@@ -4200,12 +4207,12 @@
       <c r="D186">
         <v>-1</v>
       </c>
-      <c r="E186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="7">
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
         <v>879015</v>
       </c>
       <c r="B187">
@@ -4217,12 +4224,12 @@
       <c r="D187">
         <v>-1</v>
       </c>
-      <c r="E187" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="7">
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
         <v>879016</v>
       </c>
       <c r="B188">
@@ -4234,12 +4241,12 @@
       <c r="D188">
         <v>-1</v>
       </c>
-      <c r="E188" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="7">
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
         <v>879017</v>
       </c>
       <c r="B189">
@@ -4251,12 +4258,12 @@
       <c r="D189">
         <v>-1</v>
       </c>
-      <c r="E189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="7">
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
         <v>879901</v>
       </c>
       <c r="B190">
@@ -4268,12 +4275,12 @@
       <c r="D190">
         <v>-1</v>
       </c>
-      <c r="E190" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="7">
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
         <v>879904</v>
       </c>
       <c r="B191">
@@ -4285,12 +4292,12 @@
       <c r="D191">
         <v>-1</v>
       </c>
-      <c r="E191" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="7">
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
         <v>879906</v>
       </c>
       <c r="B192">
@@ -4302,12 +4309,12 @@
       <c r="D192">
         <v>-1</v>
       </c>
-      <c r="E192" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="7">
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
         <v>879913</v>
       </c>
       <c r="B193">
@@ -4319,7 +4326,7 @@
       <c r="D193">
         <v>-1</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193">
         <v>0</v>
       </c>
     </row>
@@ -4332,12 +4339,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4345,12 +4352,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel文件/xiakeqian/侠客参数随机表.xlsx
+++ b/Excel文件/xiakeqian/侠客参数随机表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9098D9-A7AE-4A34-AD15-CA0441DD920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B9969-1CDB-4C04-B9F7-142017C4DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>38</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>39</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>40</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>42</v>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>43</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>44</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>33</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
         <v>36</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
         <v>7</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
         <v>8</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
         <v>9</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
         <v>20</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s">
         <v>23</v>
@@ -1441,7 +1441,7 @@
         <v>878262</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
         <v>24</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s">
         <v>25</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s">
         <v>26</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s">
         <v>27</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s">
         <v>29</v>
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s">
         <v>30</v>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s">
         <v>31</v>
